--- a/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DE4FBE8-5FA1-4BC1-9E32-3F05A5F6356F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51F3D9E-B6A2-41C3-9D8A-90FD7A4FA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA2F4BBD-218C-4B0E-A136-A989490D9558}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07BC48DF-E482-4857-87E9-89BF2AEA817B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -74,58 +74,58 @@
     <t>14,25%</t>
   </si>
   <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>15,56%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,25 +134,25 @@
     <t>74,42%</t>
   </si>
   <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>69,86%</t>
+    <t>69,92%</t>
   </si>
   <si>
     <t>74,66%</t>
@@ -167,82 +167,82 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,10 +251,10 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -263,13 +263,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>3,05%</t>
@@ -278,130 +281,124 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>8,65%</t>
+    <t>7,83%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD179E9-5995-4AD6-84DC-E1C3988B8C93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E6E2C-13B9-4E81-AD7C-DD706DA6BBF5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1385,10 +1382,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,13 +1400,13 @@
         <v>3399</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1418,13 +1415,13 @@
         <v>7238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1433,10 +1430,10 @@
         <v>10637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>86</v>
@@ -1588,13 +1585,13 @@
         <v>148427</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,10 +1609,10 @@
         <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -1624,13 +1621,13 @@
         <v>101377</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -1639,13 +1636,13 @@
         <v>154747</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1657,13 @@
         <v>583581</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>1333</v>
@@ -1675,13 +1672,13 @@
         <v>823105</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>2181</v>
@@ -1690,13 +1687,13 @@
         <v>1406687</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51F3D9E-B6A2-41C3-9D8A-90FD7A4FA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8292C359-299E-464A-8BAD-33EE714FAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{07BC48DF-E482-4857-87E9-89BF2AEA817B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{726DEC5B-6610-47AA-A57C-DEDCABE1B958}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E6E2C-13B9-4E81-AD7C-DD706DA6BBF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245D89CC-E242-46A4-A4D6-006BE5E6A4BC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8292C359-299E-464A-8BAD-33EE714FAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA42AC6-0C2D-4A78-A406-243F25D2DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{726DEC5B-6610-47AA-A57C-DEDCABE1B958}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E26E9D76-16AA-4608-9BBE-27AEB39DABE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>14,25%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -104,28 +104,28 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,25 +134,25 @@
     <t>74,42%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>71,34%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>69,92%</t>
+    <t>69,86%</t>
   </si>
   <si>
     <t>74,66%</t>
@@ -167,238 +167,241 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
   </si>
   <si>
     <t>9,94%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245D89CC-E242-46A4-A4D6-006BE5E6A4BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE51875B-B35E-4605-96BE-AE4822C4AB90}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1382,10 +1385,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,13 +1403,13 @@
         <v>3399</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1415,13 +1418,13 @@
         <v>7238</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1430,10 +1433,10 @@
         <v>10637</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>86</v>
@@ -1585,13 +1588,13 @@
         <v>148427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,10 +1612,10 @@
         <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -1621,13 +1624,13 @@
         <v>101377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -1636,13 +1639,13 @@
         <v>154747</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1660,13 @@
         <v>583581</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>1333</v>
@@ -1672,13 +1675,13 @@
         <v>823105</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>2181</v>
@@ -1687,13 +1690,13 @@
         <v>1406687</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,7 +1752,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5418_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA42AC6-0C2D-4A78-A406-243F25D2DAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D49F788-7F00-4E09-8679-035811336DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E26E9D76-16AA-4608-9BBE-27AEB39DABE5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02993F17-C936-4605-877F-94ECA27DCBA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Población según si es capaz de lavarse la ropa en 2023 (Tasa respuesta: 31,2%)</t>
   </si>
@@ -71,337 +71,340 @@
     <t>No puede</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE51875B-B35E-4605-96BE-AE4822C4AB90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE3964C-B1BA-449D-A0E9-04CDAD6D2CA0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,7 +940,7 @@
         <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>40523</v>
+        <v>38502</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,7 +955,7 @@
         <v>157</v>
       </c>
       <c r="I4" s="7">
-        <v>85873</v>
+        <v>77046</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,7 +970,7 @@
         <v>226</v>
       </c>
       <c r="N4" s="7">
-        <v>126396</v>
+        <v>115548</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,7 +991,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>32228</v>
+        <v>30251</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,7 +1006,7 @@
         <v>138</v>
       </c>
       <c r="I5" s="7">
-        <v>73149</v>
+        <v>64864</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,7 +1021,7 @@
         <v>187</v>
       </c>
       <c r="N5" s="7">
-        <v>105377</v>
+        <v>95115</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,7 +1042,7 @@
         <v>306</v>
       </c>
       <c r="D6" s="7">
-        <v>211633</v>
+        <v>197791</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1054,7 +1057,7 @@
         <v>723</v>
       </c>
       <c r="I6" s="7">
-        <v>395843</v>
+        <v>358230</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1069,7 +1072,7 @@
         <v>1029</v>
       </c>
       <c r="N6" s="7">
-        <v>607475</v>
+        <v>556022</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1090,7 +1093,7 @@
         <v>424</v>
       </c>
       <c r="D7" s="7">
-        <v>284384</v>
+        <v>266544</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1105,7 +1108,7 @@
         <v>1018</v>
       </c>
       <c r="I7" s="7">
-        <v>554865</v>
+        <v>500140</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1120,7 +1123,7 @@
         <v>1442</v>
       </c>
       <c r="N7" s="7">
-        <v>839249</v>
+        <v>766685</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1143,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>10766</v>
+        <v>10164</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1158,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>9017</v>
+        <v>8189</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1173,7 +1176,7 @@
         <v>35</v>
       </c>
       <c r="N8" s="7">
-        <v>19783</v>
+        <v>18353</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1194,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="7">
-        <v>17743</v>
+        <v>16486</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1209,7 +1212,7 @@
         <v>39</v>
       </c>
       <c r="I9" s="7">
-        <v>20990</v>
+        <v>18627</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1224,7 +1227,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>38733</v>
+        <v>35113</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1245,7 +1248,7 @@
         <v>383</v>
       </c>
       <c r="D10" s="7">
-        <v>266057</v>
+        <v>246607</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1260,7 +1263,7 @@
         <v>471</v>
       </c>
       <c r="I10" s="7">
-        <v>356414</v>
+        <v>428923</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1275,7 +1278,7 @@
         <v>854</v>
       </c>
       <c r="N10" s="7">
-        <v>622471</v>
+        <v>675530</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1296,7 +1299,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1311,7 +1314,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1326,7 +1329,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1349,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>2088</v>
+        <v>1970</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1364,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1379,16 +1382,16 @@
         <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>2248</v>
+        <v>2129</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,46 +1403,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3399</v>
+        <v>2944</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>7238</v>
+        <v>6623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>10637</v>
+        <v>9567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,46 +1454,46 @@
         <v>159</v>
       </c>
       <c r="D14" s="7">
-        <v>105892</v>
+        <v>99490</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>139</v>
       </c>
       <c r="I14" s="7">
-        <v>70848</v>
+        <v>64542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>298</v>
       </c>
       <c r="N14" s="7">
-        <v>176740</v>
+        <v>164030</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,7 +1505,7 @@
         <v>167</v>
       </c>
       <c r="D15" s="7">
-        <v>111379</v>
+        <v>104403</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1517,7 +1520,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1532,7 +1535,7 @@
         <v>319</v>
       </c>
       <c r="N15" s="7">
-        <v>189624</v>
+        <v>175727</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1555,46 +1558,46 @@
         <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>53377</v>
+        <v>50636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
       </c>
       <c r="I16" s="7">
-        <v>95050</v>
+        <v>85395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
       </c>
       <c r="N16" s="7">
-        <v>148427</v>
+        <v>136031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,46 +1609,46 @@
         <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>53370</v>
+        <v>49681</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
       </c>
       <c r="I17" s="7">
-        <v>101377</v>
+        <v>90114</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
       </c>
       <c r="N17" s="7">
-        <v>154747</v>
+        <v>139795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,46 +1660,46 @@
         <v>848</v>
       </c>
       <c r="D18" s="7">
-        <v>583581</v>
+        <v>543887</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>1333</v>
       </c>
       <c r="I18" s="7">
-        <v>823105</v>
+        <v>851695</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>2181</v>
       </c>
       <c r="N18" s="7">
-        <v>1406687</v>
+        <v>1395582</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1711,7 @@
         <v>1017</v>
       </c>
       <c r="D19" s="7">
-        <v>690328</v>
+        <v>644204</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1723,7 +1726,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019532</v>
+        <v>1027204</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1738,7 +1741,7 @@
         <v>2716</v>
       </c>
       <c r="N19" s="7">
-        <v>1709861</v>
+        <v>1671408</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1755,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
